--- a/Clean-200.xlsx
+++ b/Clean-200.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,10 +405,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.407810845580508E-07</v>
+        <v>1.717756382297197E-07</v>
       </c>
       <c r="D2">
-        <v>1.379573993175891E-05</v>
+        <v>9.842019093729016E-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>0.009999999776482582</v>
       </c>
       <c r="C3">
-        <v>1.968273146575052E-07</v>
+        <v>1.397022889503383E-07</v>
       </c>
       <c r="D3">
-        <v>1.12773744227685E-05</v>
+        <v>8.004351545171501E-06</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,10 +433,10 @@
         <v>0.01999999955296516</v>
       </c>
       <c r="C4">
-        <v>1.546998101181106E-07</v>
+        <v>1.090623033209582E-07</v>
       </c>
       <c r="D4">
-        <v>8.863646211242968E-06</v>
+        <v>6.248809684266529E-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>0.0350000001490116</v>
       </c>
       <c r="C5">
-        <v>9.495339645676916E-08</v>
+        <v>6.578698014419895E-08</v>
       </c>
       <c r="D5">
-        <v>5.440428867405338E-06</v>
+        <v>3.769316309173548E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,10 +461,10 @@
         <v>0.05750000104308128</v>
       </c>
       <c r="C6">
-        <v>1.311541263318713E-08</v>
+        <v>6.902126262458425E-09</v>
       </c>
       <c r="D6">
-        <v>7.514577904541841E-07</v>
+        <v>3.954627045052729E-07</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -475,10 +475,10 @@
         <v>0.09125000238418579</v>
       </c>
       <c r="C7">
-        <v>-9.188822652360547E-08</v>
+        <v>-6.78809594613567E-08</v>
       </c>
       <c r="D7">
-        <v>-5.264807566744662E-06</v>
+        <v>-3.889292486434373E-06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -489,10 +489,10 @@
         <v>0.1412499994039536</v>
       </c>
       <c r="C8">
-        <v>-2.07595684663278E-07</v>
+        <v>-1.488448342300795E-07</v>
       </c>
       <c r="D8">
-        <v>-1.189435657633454E-05</v>
+        <v>-8.528180803707925E-06</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -503,10 +503,10 @@
         <v>0.1912499964237213</v>
       </c>
       <c r="C9">
-        <v>-2.746706421097485E-07</v>
+        <v>-1.941274128589281E-07</v>
       </c>
       <c r="D9">
-        <v>-1.573746854903689E-05</v>
+        <v>-1.112268144461025E-05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -517,10 +517,10 @@
         <v>0.2412499934434891</v>
       </c>
       <c r="C10">
-        <v>-2.915705958485932E-07</v>
+        <v>-2.036413838563426E-07</v>
       </c>
       <c r="D10">
-        <v>-1.670576457223903E-05</v>
+        <v>-1.166779182917197E-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -531,10 +531,10 @@
         <v>0.2912499904632568</v>
       </c>
       <c r="C11">
-        <v>-2.566657313746688E-07</v>
+        <v>-1.770083974264938E-07</v>
       </c>
       <c r="D11">
-        <v>-1.470586315340704E-05</v>
+        <v>-1.014183411091244E-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -545,10 +545,10 @@
         <v>0.3412500023841857</v>
       </c>
       <c r="C12">
-        <v>-1.683313987030106E-07</v>
+        <v>-1.138819770807147E-07</v>
       </c>
       <c r="D12">
-        <v>-9.644678705216446E-06</v>
+        <v>-6.524956649330522E-06</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -559,10 +559,10 @@
         <v>0.3912500143051147</v>
       </c>
       <c r="C13">
-        <v>-2.45833728415145E-08</v>
+        <v>-1.361906907192643E-08</v>
       </c>
       <c r="D13">
-        <v>-1.408523510015311E-06</v>
+        <v>-7.803151787185357E-07</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -573,10 +573,10 @@
         <v>0.4412499964237213</v>
       </c>
       <c r="C14">
-        <v>1.76567735722102E-07</v>
+        <v>1.244261498227874E-07</v>
       </c>
       <c r="D14">
-        <v>1.011658605505775E-05</v>
+        <v>7.129093245908173E-06</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -587,10 +587,10 @@
         <v>0.4912500083446503</v>
       </c>
       <c r="C15">
-        <v>4.383608979163268E-07</v>
+        <v>3.013485472547206E-07</v>
       </c>
       <c r="D15">
-        <v>2.511622935417065E-05</v>
+        <v>1.726599992009414E-05</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -601,10 +601,10 @@
         <v>0.5412499904632568</v>
       </c>
       <c r="C16">
-        <v>7.622137556855327E-07</v>
+        <v>5.180323160436373E-07</v>
       </c>
       <c r="D16">
-        <v>4.367163128759668E-05</v>
+        <v>2.968106536068762E-05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -615,10 +615,10 @@
         <v>0.5912500023841858</v>
       </c>
       <c r="C17">
-        <v>1.15835019926739E-06</v>
+        <v>7.804617673571289E-07</v>
       </c>
       <c r="D17">
-        <v>6.636857761615934E-05</v>
+        <v>4.471716534088461E-05</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -629,10 +629,10 @@
         <v>0.6037499904632568</v>
       </c>
       <c r="C18">
-        <v>1.528986420506247E-06</v>
+        <v>9.82423345351896E-07</v>
       </c>
       <c r="D18">
-        <v>8.760446882782293E-05</v>
+        <v>5.628871138378696E-05</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -643,10 +643,10 @@
         <v>0.6162499785423279</v>
       </c>
       <c r="C19">
-        <v>1.939203851165829E-06</v>
+        <v>1.204408358700896E-06</v>
       </c>
       <c r="D19">
-        <v>0.0001111081962873175</v>
+        <v>6.900751576383989E-05</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -657,10 +657,10 @@
         <v>0.6349999904632568</v>
       </c>
       <c r="C20">
-        <v>2.61051543791295E-06</v>
+        <v>1.566193131923369E-06</v>
       </c>
       <c r="D20">
-        <v>0.0001495715169461579</v>
+        <v>8.973625636158518E-05</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -671,10 +671,164 @@
         <v>0.6631249785423279</v>
       </c>
       <c r="C21">
-        <v>3.742756033360203E-06</v>
+        <v>2.17336991900261E-06</v>
       </c>
       <c r="D21">
-        <v>0.0002144441244586648</v>
+        <v>0.0001245249236795391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.7053124904632568</v>
+      </c>
+      <c r="C22">
+        <v>3.228426352072438E-06</v>
+      </c>
+      <c r="D22">
+        <v>0.0001849752044425671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.7553125023841859</v>
+      </c>
+      <c r="C23">
+        <v>4.701109489099395E-06</v>
+      </c>
+      <c r="D23">
+        <v>0.000269353732754298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.8053125143051147</v>
+      </c>
+      <c r="C24">
+        <v>6.41814838664022E-06</v>
+      </c>
+      <c r="D24">
+        <v>0.0003677328148431831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.8553125262260437</v>
+      </c>
+      <c r="C25">
+        <v>8.38443248821273E-06</v>
+      </c>
+      <c r="D25">
+        <v>0.0004803925951869608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.905312478542328</v>
+      </c>
+      <c r="C26">
+        <v>1.060090419429836E-05</v>
+      </c>
+      <c r="D26">
+        <v>0.0006073870693558284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.9178125262260435</v>
+      </c>
+      <c r="C27">
+        <v>1.119435942168985E-05</v>
+      </c>
+      <c r="D27">
+        <v>0.0006413895492153376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.936562478542328</v>
+      </c>
+      <c r="C28">
+        <v>1.211320258776146E-05</v>
+      </c>
+      <c r="D28">
+        <v>0.000694035384665679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.9646875262260435</v>
+      </c>
+      <c r="C29">
+        <v>1.355657955361654E-05</v>
+      </c>
+      <c r="D29">
+        <v>0.0007767347930555733</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.9752343893051149</v>
+      </c>
+      <c r="C30">
+        <v>5.083056386114655E-06</v>
+      </c>
+      <c r="D30">
+        <v>0.0002912376779513903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.9910547137260435</v>
+      </c>
+      <c r="C31">
+        <v>-7.58095881366657E-06</v>
+      </c>
+      <c r="D31">
+        <v>-0.000434356944685598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.014785170555115</v>
+      </c>
+      <c r="C32">
+        <v>-2.646882624040658E-05</v>
+      </c>
+      <c r="D32">
+        <v>-0.001516552032240423</v>
       </c>
     </row>
   </sheetData>
